--- a/biology/Zoologie/Dinolestes_lewini/Dinolestes_lewini.xlsx
+++ b/biology/Zoologie/Dinolestes_lewini/Dinolestes_lewini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinolestes lewini est une espèce de poissons marins perciformes, la seule du genre Dinolestes et de la famille des Dinolestidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un poisson endémique présent sur les côtes australienne et de Nouvelle-Galles du Sud. On le trouve à des profondeurs de -5 à -65 m.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinolestes lewini a l'allure d'un petit barracuda. Sa taille maximale est de 84 cm. C'est un poisson grégaire se déplaçant en banc.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dinolestes muelleri Klunzinger, 1872</t>
         </is>
